--- a/Issue 3H/HARLEQUIN 128 Issue 3H BOM.xlsx
+++ b/Issue 3H/HARLEQUIN 128 Issue 3H BOM.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\digitalshop\Downloads\a\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Files\Retro Computer\zx spectrum\_clone\superfo\128K\Issue 3\docs\Issue 3H\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F446AC44-F53B-4A4E-860F-0A90E1854920}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="450" windowWidth="12855" windowHeight="14730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19650" windowHeight="14700"/>
   </bookViews>
   <sheets>
     <sheet name="HARLEQUIN 128 Issue 3" sheetId="1" r:id="rId1"/>
@@ -690,9 +689,6 @@
     <t>10K*8</t>
   </si>
   <si>
-    <t>R-78E5.0</t>
-  </si>
-  <si>
     <t xml:space="preserve">945-2201-ND </t>
   </si>
   <si>
@@ -760,12 +756,15 @@
   </si>
   <si>
     <t>J18 (option for ESP8266 Module)</t>
+  </si>
+  <si>
+    <t>R-78E5.0-1.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1301,30 +1300,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="59" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" customWidth="1"/>
+    <col min="3" max="3" width="34.7265625" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -1338,7 +1337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A3" s="13" t="s">
         <v>127</v>
       </c>
@@ -1352,7 +1351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
@@ -1366,7 +1365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
@@ -1380,9 +1379,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A6" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -1394,7 +1393,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="13" t="s">
         <v>9</v>
       </c>
@@ -1408,7 +1407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A8" s="13" t="s">
         <v>11</v>
       </c>
@@ -1422,7 +1421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A9" s="13" t="s">
         <v>13</v>
       </c>
@@ -1436,7 +1435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A10" s="15" t="s">
         <v>135</v>
       </c>
@@ -1444,13 +1443,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D10" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A11" s="13" t="s">
         <v>136</v>
       </c>
@@ -1464,9 +1463,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A12" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>15</v>
@@ -1478,7 +1477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A13" s="13" t="s">
         <v>16</v>
       </c>
@@ -1492,7 +1491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A14" s="13" t="s">
         <v>18</v>
       </c>
@@ -1506,7 +1505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A15" s="13" t="s">
         <v>20</v>
       </c>
@@ -1520,7 +1519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A16" s="15" t="s">
         <v>217</v>
       </c>
@@ -1528,7 +1527,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="14"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A17" s="13" t="s">
         <v>22</v>
       </c>
@@ -1542,7 +1541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A18" s="13" t="s">
         <v>143</v>
       </c>
@@ -1556,35 +1555,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A19" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>144</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D19" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A20" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>225</v>
-      </c>
       <c r="D20" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A21" s="13" t="s">
         <v>25</v>
       </c>
@@ -1592,13 +1591,13 @@
         <v>24</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D21" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A22" s="13" t="s">
         <v>26</v>
       </c>
@@ -1612,7 +1611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A23" s="13" t="s">
         <v>27</v>
       </c>
@@ -1626,7 +1625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A24" s="13" t="s">
         <v>28</v>
       </c>
@@ -1640,21 +1639,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A25" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="D25" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A26" s="13" t="s">
         <v>31</v>
       </c>
@@ -1668,7 +1667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A27" s="13" t="s">
         <v>33</v>
       </c>
@@ -1682,9 +1681,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A28" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>34</v>
@@ -1696,9 +1695,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A29" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>35</v>
@@ -1710,9 +1709,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A30" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>36</v>
@@ -1724,7 +1723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A31" s="13" t="s">
         <v>38</v>
       </c>
@@ -1738,7 +1737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A32" s="13" t="s">
         <v>40</v>
       </c>
@@ -1752,7 +1751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A33" s="13" t="s">
         <v>42</v>
       </c>
@@ -1766,7 +1765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A34" s="13" t="s">
         <v>44</v>
       </c>
@@ -1780,7 +1779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A35" s="13" t="s">
         <v>46</v>
       </c>
@@ -1794,7 +1793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A36" s="13" t="s">
         <v>48</v>
       </c>
@@ -1808,7 +1807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A37" s="13" t="s">
         <v>219</v>
       </c>
@@ -1822,7 +1821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A38" s="13" t="s">
         <v>51</v>
       </c>
@@ -1836,7 +1835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A39" s="13" t="s">
         <v>53</v>
       </c>
@@ -1850,7 +1849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A40" s="13" t="s">
         <v>55</v>
       </c>
@@ -1864,7 +1863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A41" s="13" t="s">
         <v>57</v>
       </c>
@@ -1878,7 +1877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A42" s="13" t="s">
         <v>59</v>
       </c>
@@ -1886,13 +1885,13 @@
         <v>58</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D42" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A43" s="13" t="s">
         <v>61</v>
       </c>
@@ -1900,13 +1899,13 @@
         <v>60</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D43" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A44" s="13" t="s">
         <v>62</v>
       </c>
@@ -1920,7 +1919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A45" s="13" t="s">
         <v>64</v>
       </c>
@@ -1934,7 +1933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A46" s="13" t="s">
         <v>65</v>
       </c>
@@ -1948,7 +1947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A47" s="13" t="s">
         <v>66</v>
       </c>
@@ -1962,7 +1961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A48" s="15" t="s">
         <v>203</v>
       </c>
@@ -1976,7 +1975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A49" s="15" t="s">
         <v>204</v>
       </c>
@@ -1990,7 +1989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A50" s="13" t="s">
         <v>70</v>
       </c>
@@ -2004,7 +2003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A51" s="13" t="s">
         <v>72</v>
       </c>
@@ -2018,7 +2017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A52" s="13" t="s">
         <v>74</v>
       </c>
@@ -2032,7 +2031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A53" s="13" t="s">
         <v>76</v>
       </c>
@@ -2046,7 +2045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A54" s="13" t="s">
         <v>78</v>
       </c>
@@ -2060,7 +2059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A55" s="13" t="s">
         <v>80</v>
       </c>
@@ -2074,7 +2073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A56" s="13" t="s">
         <v>82</v>
       </c>
@@ -2088,7 +2087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A57" s="13" t="s">
         <v>84</v>
       </c>
@@ -2102,7 +2101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A58" s="13" t="s">
         <v>86</v>
       </c>
@@ -2116,7 +2115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A59" s="13" t="s">
         <v>88</v>
       </c>
@@ -2130,7 +2129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A60" s="13" t="s">
         <v>90</v>
       </c>
@@ -2144,7 +2143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A61" s="13" t="s">
         <v>92</v>
       </c>
@@ -2158,7 +2157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A62" s="13" t="s">
         <v>94</v>
       </c>
@@ -2172,7 +2171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A63" s="13" t="s">
         <v>96</v>
       </c>
@@ -2186,7 +2185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A64" s="13" t="s">
         <v>98</v>
       </c>
@@ -2200,7 +2199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A65" s="13" t="s">
         <v>100</v>
       </c>
@@ -2214,7 +2213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A66" s="15" t="s">
         <v>218</v>
       </c>
@@ -2228,7 +2227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A67" s="13" t="s">
         <v>103</v>
       </c>
@@ -2242,7 +2241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A68" s="13" t="s">
         <v>105</v>
       </c>
@@ -2256,7 +2255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A69" s="13" t="s">
         <v>107</v>
       </c>
@@ -2270,7 +2269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A70" s="13" t="s">
         <v>109</v>
       </c>
@@ -2284,21 +2283,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A71" s="13" t="s">
         <v>110</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C71" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="C71" s="9" t="s">
-        <v>222</v>
-      </c>
       <c r="D71" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A72" s="13" t="s">
         <v>112</v>
       </c>
@@ -2312,7 +2311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A73" s="13" t="s">
         <v>114</v>
       </c>
@@ -2326,12 +2325,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A74" s="13" t="s">
         <v>115</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>173</v>
@@ -2340,7 +2339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A75" s="13" t="s">
         <v>117</v>
       </c>
@@ -2354,7 +2353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A76" s="13" t="s">
         <v>119</v>
       </c>
@@ -2368,7 +2367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A77" s="13" t="s">
         <v>121</v>
       </c>
@@ -2382,7 +2381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A78" s="13" t="s">
         <v>123</v>
       </c>
@@ -2396,7 +2395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A79" s="15" t="s">
         <v>205</v>
       </c>
@@ -2410,7 +2409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="6"/>
       <c r="B80" s="5" t="s">
         <v>206</v>
@@ -2422,7 +2421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A81" s="7"/>
       <c r="B81" s="8" t="s">
         <v>208</v>
@@ -2434,7 +2433,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A82" s="7"/>
       <c r="B82" s="8" t="s">
         <v>210</v>
@@ -2443,10 +2442,10 @@
         <v>211</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A83" s="7"/>
       <c r="B83" s="8" t="s">
         <v>212</v>
@@ -2458,10 +2457,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A84" s="7"/>
       <c r="B84" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C84" s="9" t="s">
         <v>214</v>
@@ -2470,19 +2469,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A85" s="7"/>
       <c r="B85" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C85" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="C85" s="9" t="s">
-        <v>240</v>
-      </c>
       <c r="D85" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A86" s="17"/>
       <c r="B86" s="18" t="s">
         <v>215</v>
